--- a/Assets/StreamingAssets/Book/CN/CharacterMap.xlsx
+++ b/Assets/StreamingAssets/Book/CN/CharacterMap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>编号</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>C001</t>
   </si>
   <si>
     <t>南希</t>
@@ -973,7 +970,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1001,11 +998,11 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>216</v>
